--- a/medicine/Enfance/Eugène_Mouton/Eugène_Mouton.xlsx
+++ b/medicine/Enfance/Eugène_Mouton/Eugène_Mouton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Mouton</t>
+          <t>Eugène_Mouton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(Pierre Martin Désiré) Eugène Mouton, connu aussi sous le pseudonyme de Mérinos, né le 13 avril 1823 à Marseille, mort le 8 juin 1902 à Paris (7ème)[1], est un magistrat et écrivain humoristique et fantastique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Pierre Martin Désiré) Eugène Mouton, connu aussi sous le pseudonyme de Mérinos, né le 13 avril 1823 à Marseille, mort le 8 juin 1902 à Paris (7ème), est un magistrat et écrivain humoristique et fantastique français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Mouton</t>
+          <t>Eugène_Mouton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un officier monté du rang, Louis Mouton, qui commença sa carrière dans l’armée d'Italie en 1795 et la finit colonel, et d’une créole, Élisabeth Roux il vit en Guadeloupe jusqu’à l’âge de dix ans.
-Après des études de droit à Paris, il rejoint la magistrature et occupe différents postes avant d’être nommé en 1862 procureur impérial à Rodez où il finalise un ouvrage sur les Lois pénales de la France[2]. Il crée un service de bibliothèques ambulantes dans l’Aveyron  qui porte son nom et qui lui vaut une médaille  de bronze à l’exposition universelle de 1889.
+Après des études de droit à Paris, il rejoint la magistrature et occupe différents postes avant d’être nommé en 1862 procureur impérial à Rodez où il finalise un ouvrage sur les Lois pénales de la France. Il crée un service de bibliothèques ambulantes dans l’Aveyron  qui porte son nom et qui lui vaut une médaille  de bronze à l’exposition universelle de 1889.
 En 1857, il publie dans Le Figaro L'invalide à la tête de bois qui lui donne la célébrité. Il abandonne l’administration en 1867 pour se consacrer à l’écriture.
 Il pastiche Les Aventures (merveilleuses mais authentiques) du capitaine Corcoran, d'Alfred Assolant avec Voyages et Aventures du Capitaine Marius Cougourdan - Commandant Le Trois-mâts " La Bonne Mère ".
 En 1886, il se présente à l'Académie française contre Leconte de Lisle pour le fauteuil de Victor Hugo, et n’obtient que deux  voix.
 Il publie ses mémoires dans Un demi-siècle de vie (1848-1901) chez Delagrave.
-Il est sans doute le premier à imaginer, dans son texte La Fin du Monde (1872)[3], que l'industrialisation à outrance entraînera une pénurie de ressources naturelles, un réchauffement de la planète et la disparition de l'espèce humaine.
+Il est sans doute le premier à imaginer, dans son texte La Fin du Monde (1872), que l'industrialisation à outrance entraînera une pénurie de ressources naturelles, un réchauffement de la planète et la disparition de l'espèce humaine.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Mouton</t>
+          <t>Eugène_Mouton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouvelles et fantaisies humoristiques.  Librairie générale, 1872
 Fantaisies. G. Charpentier 1883
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Mouton</t>
+          <t>Eugène_Mouton</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Note et référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Son acte de décès (n°1041) dans les registres de décès du 7ème arrondissement de Paris pour l'année 1902
